--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_16Channel/3U3I3I3I.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_16Channel/3U3I3I3I.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91D206C-C868-4D1E-96DC-B8942256DDD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111EBF49-9CB0-4174-B0D6-21FA37D8F636}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="132">
   <si>
     <t>Channel</t>
   </si>
@@ -404,22 +404,22 @@
     <t>DeviceName</t>
   </si>
   <si>
-    <t>DSP_1_Feeder_Map_3</t>
-  </si>
-  <si>
-    <t>DSP_2_Feeder_Map_3</t>
-  </si>
-  <si>
     <t>10.75.58.66</t>
   </si>
   <si>
-    <t>sn414638044_3U_15I.cal</t>
-  </si>
-  <si>
     <t>IDM-E</t>
   </si>
   <si>
     <t>IDC-DAU-66</t>
+  </si>
+  <si>
+    <t>3U_13I.cal</t>
+  </si>
+  <si>
+    <t>Channel 17</t>
+  </si>
+  <si>
+    <t>Channel 18</t>
   </si>
 </sst>
 </file>
@@ -741,13 +741,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -766,16 +768,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
         <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -786,10 +788,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,6 +1013,9 @@
       <c r="J6" t="s">
         <v>63</v>
       </c>
+      <c r="W6" t="s">
+        <v>19</v>
+      </c>
       <c r="X6" t="s">
         <v>9</v>
       </c>
@@ -1058,6 +1063,9 @@
       <c r="J7" t="s">
         <v>63</v>
       </c>
+      <c r="W7" t="s">
+        <v>20</v>
+      </c>
       <c r="X7" t="s">
         <v>10</v>
       </c>
@@ -1105,6 +1113,9 @@
       <c r="J8" t="s">
         <v>63</v>
       </c>
+      <c r="W8" t="s">
+        <v>21</v>
+      </c>
       <c r="Y8" t="s">
         <v>12</v>
       </c>
@@ -1149,6 +1160,9 @@
       <c r="J9" t="s">
         <v>63</v>
       </c>
+      <c r="W9" t="s">
+        <v>22</v>
+      </c>
       <c r="Y9" t="s">
         <v>64</v>
       </c>
@@ -1193,6 +1207,9 @@
       <c r="J10" t="s">
         <v>63</v>
       </c>
+      <c r="W10" t="s">
+        <v>23</v>
+      </c>
       <c r="Y10" t="s">
         <v>68</v>
       </c>
@@ -1237,6 +1254,9 @@
       <c r="J11" t="s">
         <v>63</v>
       </c>
+      <c r="W11" t="s">
+        <v>24</v>
+      </c>
       <c r="Y11" t="s">
         <v>69</v>
       </c>
@@ -1272,6 +1292,9 @@
       <c r="J12" t="s">
         <v>63</v>
       </c>
+      <c r="W12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1304,6 +1327,9 @@
       <c r="J13" t="s">
         <v>63</v>
       </c>
+      <c r="W13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1336,6 +1362,9 @@
       <c r="J14" t="s">
         <v>67</v>
       </c>
+      <c r="W14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1368,6 +1397,9 @@
       <c r="J15" t="s">
         <v>67</v>
       </c>
+      <c r="W15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1400,8 +1432,11 @@
       <c r="J16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="W16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1431,6 +1466,29 @@
       </c>
       <c r="J17" t="s">
         <v>67</v>
+      </c>
+      <c r="W17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W21" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1461,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F900DB-E39E-47FA-85D8-F06E1553D09B}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,41 +1564,25 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9">
         <v>-1</v>
       </c>
     </row>
